--- a/Planilha_investimentos_FII.xlsx
+++ b/Planilha_investimentos_FII.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8904c1055a1d498/Documentos/Curso Excel com IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EC508EA-6C23-40F3-8341-76A6C86BBBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{2EC508EA-6C23-40F3-8341-76A6C86BBBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59BF279-03D3-4809-B133-123F20A6E7E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F165FE65-B5F4-4B64-A3C4-D3E3CBFDA826}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="52" xr2:uid="{F165FE65-B5F4-4B64-A3C4-D3E3CBFDA826}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha de Investimentos" sheetId="1" r:id="rId1"/>
-    <sheet name="Dados" sheetId="2" r:id="rId2"/>
+    <sheet name="Dados" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aporte">'Planilha de Investimentos'!$D$15</definedName>
@@ -51,9 +51,6 @@
     <t>Qual a taxa de rendimento mensal?</t>
   </si>
   <si>
-    <t>Quanro investir por mês?</t>
-  </si>
-  <si>
     <t>INVESTIMENTO MENSAL</t>
   </si>
   <si>
@@ -63,18 +60,9 @@
     <t>Dividendos mensais?</t>
   </si>
   <si>
-    <t>INVESTIMENTO EM FUNDOS IMOBILIÁRIO</t>
-  </si>
-  <si>
     <t>Por quantos anos?</t>
   </si>
   <si>
-    <t>Quanto em 2 anos?</t>
-  </si>
-  <si>
-    <t>Quanto em 5 anos?</t>
-  </si>
-  <si>
     <t>Quantos em 10 anos?</t>
   </si>
   <si>
@@ -150,10 +138,22 @@
     <t>Moderado</t>
   </si>
   <si>
-    <t>Sugesteção de Investimento (30%)</t>
-  </si>
-  <si>
     <t>Chave</t>
+  </si>
+  <si>
+    <t>INVESTIMENTO EM FUNDOS IMOBILIÁRIOS</t>
+  </si>
+  <si>
+    <t>Sugestão de Investimento (30%)</t>
+  </si>
+  <si>
+    <t>Quanto investir por mês?</t>
+  </si>
+  <si>
+    <t>Quantos em 2 anos?</t>
+  </si>
+  <si>
+    <t>Quantos em 5 anos?</t>
   </si>
 </sst>
 </file>
@@ -162,9 +162,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +256,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -905,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -916,62 +924,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
     </xf>
     <xf numFmtId="8" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
@@ -990,7 +944,7 @@
     <xf numFmtId="8" fontId="9" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="9" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1037,34 +991,13 @@
     <xf numFmtId="8" fontId="11" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="8" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,6 +1018,92 @@
     <xf numFmtId="8" fontId="9" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutro" xfId="1" builtinId="28"/>
@@ -1101,6 +1120,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1420,13 +1443,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C07AB21-3115-41B6-B5A6-9D1327A5EE5D}">
-  <sheetPr>
+  <sheetPr codeName="Planilha1">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+      <extLst>
+        <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
+          <xlsdti:showDataTypeIcons visible="0"/>
+        </ext>
+      </extLst>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1446,124 +1474,126 @@
     <row r="2" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7"/>
+      <c r="B9" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="55"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="55">
+      <c r="B10" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="42">
         <v>10000</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="56">
+      <c r="B11" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="43">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="57">
+      <c r="B12" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="44">
         <f>D10*30%</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="68"/>
+    </row>
     <row r="14" spans="2:4" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="45">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="47">
+        <v>1.0789999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="58">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="60">
-        <v>1.0789999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="61">
+      <c r="C18" s="65"/>
+      <c r="D18" s="36">
         <f>FV(taxa_mensal,qnt_anos*12,-aporte)</f>
         <v>306538.10778801696</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="62">
+      <c r="B19" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="37">
         <f>patrimonio*rendimento_carteira</f>
         <v>1839.2286467281017</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10" t="s">
-        <v>13</v>
+      <c r="B21" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="63">
+      <c r="B22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="38">
         <f>FV($D$17,A22*12,-$D$15)</f>
         <v>34306.810395032975</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="39">
         <f>C22*rendimento_carteira</f>
         <v>205.84086237019787</v>
       </c>
@@ -1572,14 +1602,14 @@
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="52">
+      <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="33">
         <f>FV($D$17,A23*12,-$D$15)</f>
         <v>105558.91163809443</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="34">
         <f>C23*$D$11</f>
         <v>633.35346982856663</v>
       </c>
@@ -1588,14 +1618,14 @@
       <c r="A24" s="3">
         <v>10</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="52">
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="33">
         <f>FV($D$17,A24*12,-$D$15)</f>
         <v>306538.10778801696</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="34">
         <f>C24*$D$11</f>
         <v>1839.2286467281017</v>
       </c>
@@ -1604,14 +1634,14 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="52">
+      <c r="B25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="33">
         <f>FV($D$17,A25*12,-$D$15)</f>
         <v>1417749.9841223215</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="34">
         <f>C25*$D$11</f>
         <v>8506.4999047339297</v>
       </c>
@@ -1620,137 +1650,138 @@
       <c r="A26" s="3">
         <v>30</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="65">
+      <c r="B26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="40">
         <f>FV($D$17,A26*12,-$D$15)</f>
         <v>5445933.7653059401</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="41">
         <f>C26*$D$11</f>
         <v>32675.602591835643</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="B28" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="33"/>
+      <c r="B28" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="31">
+      <c r="B29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="13">
         <f>aporte</f>
         <v>1260</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="49">
+        <f>VLOOKUP($C$28&amp;"-"&amp;B32,Dados!$A:$D,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D32" s="34">
+        <f>$C$29*C32</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C33" s="49">
+        <f>VLOOKUP($C$28&amp;"-"&amp;B33,Dados!$A:$D,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="34">
+        <f t="shared" ref="D33:D37" si="0">$C$29*C33</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="52">
-        <f>VLOOKUP($C$28&amp;"-"&amp;B32,Dados!$A:$D,4,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="53">
-        <f>$C$29*C32</f>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="52">
-        <f>VLOOKUP($C$28&amp;"-"&amp;B33,Dados!$A:$D,4,FALSE)</f>
+      <c r="C34" s="49">
+        <f>VLOOKUP($C$28&amp;"-"&amp;B34,Dados!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D33" s="53">
-        <f t="shared" ref="D33:D37" si="0">$C$29*C33</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="52">
-        <f>VLOOKUP($C$28&amp;"-"&amp;B34,Dados!$A:$D,4,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D34" s="53">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="52">
-        <f>VLOOKUP($C$28&amp;"-"&amp;B35,Dados!$A:$D,4,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D35" s="53">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="52">
-        <f>VLOOKUP($C$28&amp;"-"&amp;B36,Dados!$A:$D,4,FALSE)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D36" s="53">
-        <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="52">
-        <f>VLOOKUP($C$28&amp;"-"&amp;B37,Dados!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D37" s="53">
+      <c r="D34" s="34">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
     </row>
+    <row r="35" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="49">
+        <f>VLOOKUP($C$28&amp;"-"&amp;B35,Dados!$A:$D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="34">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="49">
+        <f>VLOOKUP($C$28&amp;"-"&amp;B36,Dados!$A:$D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="49">
+        <f>VLOOKUP($C$28&amp;"-"&amp;B37,Dados!$A:$D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="38" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="54">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="35">
         <f>SUM(D32:D37)</f>
         <v>1260</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
@@ -1775,6 +1806,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6413181-147C-4225-91ED-980B15AAF02F}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1791,306 +1823,306 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>32</v>
+      <c r="A2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="str">
+      <c r="A3" s="19" t="str">
         <f>B3&amp;"-"&amp;C3</f>
         <v>Conservador-Papel</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="39">
+      <c r="B3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="21">
         <f>30%</f>
         <v>0.3</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>32</v>
+      <c r="G3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="str">
+      <c r="A4" s="19" t="str">
         <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
         <v>Conservador-Tijolo</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="39">
+      <c r="B4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="21">
         <f>50%</f>
         <v>0.5</v>
       </c>
-      <c r="G4" s="46" t="str">
+      <c r="G4" s="28" t="str">
         <f>A10</f>
         <v>Moderado-Tijolo</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="27">
         <f>VLOOKUP(G4,1:1048576,4,FALSE)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="str">
+      <c r="A5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Híbridos</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="39">
+      <c r="C5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="21">
         <f>10%</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="str">
+      <c r="A6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="39">
+      <c r="B6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="21">
         <f>10%</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="str">
+      <c r="A7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Desenvolvimento</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="39">
+      <c r="B7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="21">
         <f>0%</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="str">
+      <c r="A8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Hotelarias</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="39">
+      <c r="B8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="21">
         <f>0%</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="str">
+      <c r="A9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Papel</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="39">
+      <c r="B9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="21">
         <v>0.32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="str">
+      <c r="A10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Tijolo</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="39">
+      <c r="B10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="21">
         <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="str">
+      <c r="A11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Híbridos</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="39">
+      <c r="B11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21">
         <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="str">
+      <c r="A12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="39">
+      <c r="B12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="str">
+      <c r="A13" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Desenvolvimento</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="39">
+      <c r="B13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="21">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="str">
+      <c r="A14" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Hotelarias</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="39">
+      <c r="B14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="21">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="str">
+      <c r="A15" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-Papel</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="39">
+      <c r="B15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="21">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="str">
+      <c r="A16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-Tijolo</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="39">
+      <c r="B16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="str">
+      <c r="A17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-Híbridos</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="39">
+      <c r="B17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="21">
         <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="str">
+      <c r="A18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="39">
+      <c r="B18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="21">
         <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="str">
+      <c r="A19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-Desenvolvimento</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="39">
+      <c r="B19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="21">
         <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="str">
+      <c r="A20" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-Hotelarias</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="42">
+      <c r="B20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="24">
         <v>0.1</v>
       </c>
     </row>
